--- a/heat_transfer_factor.xlsx
+++ b/heat_transfer_factor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2001FADD-4BC2-4443-8A1A-256A043E8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tube_Laminare" sheetId="1" r:id="rId1"/>
@@ -53,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,10 +321,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,28 +339,26 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -389,11 +386,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0426389679815483E-2"/>
-                  <c:y val="-3.568382948413976E-3"/>
+                  <c:x val="-8.0426389679815496E-2"/>
+                  <c:y val="-3.5683829484139773E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -444,94 +451,97 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5AB3-4C2B-9771-DB40417E34A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="100836096"/>
-        <c:axId val="100826112"/>
+        <c:dLbls/>
+        <c:axId val="48596864"/>
+        <c:axId val="48598400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100836096"/>
+        <c:axId val="48596864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100826112"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48598400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100826112"/>
+        <c:axId val="48598400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100836096"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48596864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -548,11 +558,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12263137196390229"/>
+                  <c:x val="-0.12263137196390231"/>
                   <c:y val="3.8046549328392777E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -603,94 +623,97 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F91-4F73-86E9-309C41F8B10A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="173880064"/>
-        <c:axId val="173476864"/>
+        <c:dLbls/>
+        <c:axId val="171418368"/>
+        <c:axId val="171419904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173880064"/>
+        <c:axId val="171418368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173476864"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171419904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173476864"/>
+        <c:axId val="171419904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173880064"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171418368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -707,11 +730,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8396296616769062E-2"/>
+                  <c:x val="-6.8396296616769076E-2"/>
                   <c:y val="-2.0627564411591408E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -762,94 +795,97 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A591-45D7-A91C-CCADE9F4ECF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="104788736"/>
-        <c:axId val="104758272"/>
+        <c:dLbls/>
+        <c:axId val="175520768"/>
+        <c:axId val="175530752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104788736"/>
+        <c:axId val="175520768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104758272"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175530752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104758272"/>
+        <c:axId val="175530752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104788736"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -866,11 +902,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6738968949636018E-2"/>
-                  <c:y val="-3.2723601857460122E-2"/>
+                  <c:x val="-6.6738968949636032E-2"/>
+                  <c:y val="-3.2723601857460129E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -921,97 +967,110 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA60-432F-8166-4C998F396957}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="46408064"/>
-        <c:axId val="105912960"/>
+        <c:dLbls/>
+        <c:axId val="92087808"/>
+        <c:axId val="92089344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46408064"/>
+        <c:axId val="92087808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105912960"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92089344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105912960"/>
+        <c:axId val="92089344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46408064"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92087808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1040,11 +1099,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.9292091799783308E-2"/>
-                  <c:y val="3.7241498658821494E-3"/>
+                  <c:x val="-9.9292091799783322E-2"/>
+                  <c:y val="3.7241498658821502E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1095,87 +1164,92 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7E45-488B-AE27-F193EC64A7A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="104998400"/>
-        <c:axId val="104996864"/>
+        <c:dLbls/>
+        <c:axId val="92110848"/>
+        <c:axId val="92112384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104998400"/>
+        <c:axId val="92110848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104996864"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92112384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104996864"/>
+        <c:axId val="92112384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104998400"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92110848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1184,7 +1258,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1203,7 +1277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1211,33 +1284,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1290,8 +1341,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.21967104111986002"/>
-                  <c:y val="9.0937226596675413E-2"/>
+                  <c:x val="-0.21967104111986005"/>
+                  <c:y val="9.0937226596675441E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1307,7 +1358,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1319,7 +1370,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1372,30 +1423,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A4E5-4889-B613-15C43F35EA7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="517170000"/>
-        <c:axId val="517179184"/>
+        <c:dLbls/>
+        <c:axId val="47502080"/>
+        <c:axId val="47503616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="517170000"/>
+        <c:axId val="47502080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1413,7 +1455,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1433,7 +1474,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1445,19 +1486,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517179184"/>
+        <c:crossAx val="47503616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517179184"/>
+        <c:axId val="47503616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1475,7 +1515,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1495,7 +1534,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1507,10 +1546,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517170000"/>
+        <c:crossAx val="47502080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1524,14 +1563,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1555,30 +1593,20 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1587,7 +1615,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1606,7 +1634,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1614,33 +1642,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1682,8 +1688,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8250218722659673E-2"/>
-                  <c:y val="4.5731262758821813E-2"/>
+                  <c:x val="-8.8250218722659701E-2"/>
+                  <c:y val="4.573126275882182E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1699,7 +1705,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1711,7 +1717,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1764,32 +1770,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBBA-4770-AEC5-165898CD1E34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="446427752"/>
-        <c:axId val="446402496"/>
+        <c:dLbls/>
+        <c:axId val="47599616"/>
+        <c:axId val="47601152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446427752"/>
+        <c:axId val="47599616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1807,7 +1804,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1827,7 +1823,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1839,21 +1835,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446402496"/>
+        <c:crossAx val="47601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446402496"/>
+        <c:axId val="47601152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-2"/>
+          <c:max val="1.0000000000000004E-2"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1871,7 +1866,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1891,7 +1885,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1903,10 +1897,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446427752"/>
+        <c:crossAx val="47599616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1920,14 +1914,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1951,30 +1944,20 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1983,7 +1966,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2002,7 +1985,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2010,33 +1993,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2082,7 +2043,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.9876428489917021E-3"/>
+                  <c:x val="5.9876428489917029E-3"/>
                   <c:y val="-0.53460766840161"/>
                 </c:manualLayout>
               </c:layout>
@@ -2099,7 +2060,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2111,7 +2072,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2188,8 +2149,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7934-4A9C-9DA9-691ED2BAF945}"/>
             </c:ext>
@@ -2257,7 +2217,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2269,7 +2229,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2346,8 +2306,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7934-4A9C-9DA9-691ED2BAF945}"/>
             </c:ext>
@@ -2398,8 +2357,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3761595018014053E-4"/>
-                  <c:y val="-0.32121480804716368"/>
+                  <c:x val="-6.3761595018014064E-4"/>
+                  <c:y val="-0.32121480804716374"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2415,7 +2374,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2427,7 +2386,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2510,8 +2469,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7934-4A9C-9DA9-691ED2BAF945}"/>
             </c:ext>
@@ -2562,7 +2520,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3761595018014053E-4"/>
+                  <c:x val="-6.3761595018014064E-4"/>
                   <c:y val="-0.22608300570840723"/>
                 </c:manualLayout>
               </c:layout>
@@ -2579,7 +2537,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2591,7 +2549,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="it-IT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2674,32 +2632,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7934-4A9C-9DA9-691ED2BAF945}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="454465280"/>
-        <c:axId val="454458392"/>
+        <c:dLbls/>
+        <c:axId val="94861568"/>
+        <c:axId val="94875648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454465280"/>
+        <c:axId val="94861568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2717,7 +2666,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2737,7 +2685,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2749,20 +2697,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454458392"/>
+        <c:crossAx val="94875648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454458392"/>
+        <c:axId val="94875648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2780,7 +2727,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2800,7 +2746,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2812,10 +2758,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454465280"/>
+        <c:crossAx val="94861568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2829,7 +2775,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2842,7 +2788,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2854,20 +2800,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2891,12 +2836,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4590,7 +4535,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4626,7 +4571,7 @@
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4662,7 +4607,7 @@
         <xdr:cNvPr id="8" name="Grafico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4643,7 @@
         <xdr:cNvPr id="9" name="Grafico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4734,7 +4679,7 @@
         <xdr:cNvPr id="10" name="Grafico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4720,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A350578-F139-4EF9-B969-A6F1250314A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A350578-F139-4EF9-B969-A6F1250314A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4816,7 +4761,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7390E25-22CA-4690-A6A6-E630F3836B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7390E25-22CA-4690-A6A6-E630F3836B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4857,7 +4802,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A6FCF5-3622-4864-A772-D26A1BF62301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40A6FCF5-3622-4864-A772-D26A1BF62301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4879,7 +4824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4921,7 +4866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4953,27 +4898,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5005,24 +4932,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5198,19 +5107,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5221,8 +5130,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+    <row r="2" spans="1:3">
+      <c r="A2" s="20">
         <v>24</v>
       </c>
       <c r="B2" s="2">
@@ -5232,8 +5141,8 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21"/>
       <c r="B3" s="2">
         <v>50</v>
       </c>
@@ -5241,8 +5150,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21"/>
       <c r="B4" s="2">
         <v>200</v>
       </c>
@@ -5250,8 +5159,8 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21"/>
       <c r="B5" s="2">
         <v>800</v>
       </c>
@@ -5259,8 +5168,8 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21"/>
       <c r="B6" s="2">
         <v>2000</v>
       </c>
@@ -5268,8 +5177,8 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:3">
+      <c r="A7" s="21">
         <v>48</v>
       </c>
       <c r="B7" s="2">
@@ -5279,8 +5188,8 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21"/>
       <c r="B8" s="2">
         <v>50</v>
       </c>
@@ -5288,8 +5197,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21"/>
       <c r="B9" s="2">
         <v>200</v>
       </c>
@@ -5297,8 +5206,8 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="21"/>
       <c r="B10" s="2">
         <v>400</v>
       </c>
@@ -5306,8 +5215,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="21"/>
       <c r="B11" s="2">
         <v>700</v>
       </c>
@@ -5315,8 +5224,8 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+    <row r="12" spans="1:3">
+      <c r="A12" s="19">
         <v>120</v>
       </c>
       <c r="B12" s="2">
@@ -5326,8 +5235,8 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19"/>
       <c r="B13" s="2">
         <v>30</v>
       </c>
@@ -5335,8 +5244,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>50</v>
       </c>
@@ -5344,8 +5253,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19"/>
       <c r="B15" s="2">
         <v>600</v>
       </c>
@@ -5353,8 +5262,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19"/>
       <c r="B16" s="2">
         <v>2000</v>
       </c>
@@ -5362,8 +5271,8 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:3">
+      <c r="A17" s="19">
         <v>240</v>
       </c>
       <c r="B17" s="2">
@@ -5373,8 +5282,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19"/>
       <c r="B18" s="2">
         <v>30</v>
       </c>
@@ -5382,8 +5291,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19"/>
       <c r="B19" s="2">
         <v>100</v>
       </c>
@@ -5391,8 +5300,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19"/>
       <c r="B20" s="2">
         <v>700</v>
       </c>
@@ -5400,8 +5309,8 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19"/>
       <c r="B21" s="2">
         <v>2000</v>
       </c>
@@ -5409,8 +5318,8 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+    <row r="22" spans="1:3">
+      <c r="A22" s="19">
         <v>500</v>
       </c>
       <c r="B22" s="2">
@@ -5420,8 +5329,8 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19"/>
       <c r="B23" s="2">
         <v>60</v>
       </c>
@@ -5429,8 +5338,8 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19"/>
       <c r="B24" s="2">
         <v>300</v>
       </c>
@@ -5438,8 +5347,8 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19"/>
       <c r="B25" s="2">
         <v>700</v>
       </c>
@@ -5447,8 +5356,8 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -5471,19 +5380,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F510" sqref="F510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5494,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="7">
         <v>24</v>
       </c>
@@ -5506,7 +5415,7 @@
         <v>0.13470851887601426</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="10">
         <v>24</v>
       </c>
@@ -5518,7 +5427,7 @@
         <v>6.6467002607950826E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="10">
         <v>24</v>
       </c>
@@ -5530,7 +5439,7 @@
         <v>4.7858308876064903E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="10">
         <v>24</v>
       </c>
@@ -5542,7 +5451,7 @@
         <v>3.8547571383738259E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="10">
         <v>24</v>
       </c>
@@ -5554,7 +5463,7 @@
         <v>3.2795716800594808E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="10">
         <v>24</v>
       </c>
@@ -5566,7 +5475,7 @@
         <v>2.8825680225509274E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="10">
         <v>24</v>
       </c>
@@ -5578,7 +5487,7 @@
         <v>2.5889847097512027E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="10">
         <v>24</v>
       </c>
@@ -5590,7 +5499,7 @@
         <v>2.3613935981326571E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="10">
         <v>24</v>
       </c>
@@ -5602,7 +5511,7 @@
         <v>2.1787951739480577E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="10">
         <v>24</v>
       </c>
@@ -5614,7 +5523,7 @@
         <v>2.0284135156916027E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="10">
         <v>24</v>
       </c>
@@ -5626,7 +5535,7 @@
         <v>1.9019892350321949E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="10">
         <v>24</v>
       </c>
@@ -5638,7 +5547,7 @@
         <v>1.7939240925673578E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="10">
         <v>24</v>
       </c>
@@ -5650,7 +5559,7 @@
         <v>1.7002768255398416E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="10">
         <v>24</v>
       </c>
@@ -5662,7 +5571,7 @@
         <v>1.6181849613542777E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="10">
         <v>24</v>
       </c>
@@ -5674,7 +5583,7 @@
         <v>1.5455147294226654E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="10">
         <v>24</v>
       </c>
@@ -5686,7 +5595,7 @@
         <v>1.4806400481623568E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="10">
         <v>24</v>
       </c>
@@ -5698,7 +5607,7 @@
         <v>1.4222979947454759E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="10">
         <v>24</v>
       </c>
@@ -5710,7 +5619,7 @@
         <v>1.3694913974988334E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="10">
         <v>24</v>
       </c>
@@ -5722,7 +5631,7 @@
         <v>1.3214214508628452E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="10">
         <v>24</v>
       </c>
@@ -5734,7 +5643,7 @@
         <v>1.2774400230275143E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="10">
         <v>24</v>
       </c>
@@ -5746,7 +5655,7 @@
         <v>1.2370152145098654E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="10">
         <v>24</v>
       </c>
@@ -5758,7 +5667,7 @@
         <v>1.1997060366882112E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="10">
         <v>24</v>
       </c>
@@ -5770,7 +5679,7 @@
         <v>1.1651434946734355E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -5782,7 +5691,7 @@
         <v>1.1330162493794076E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -5794,7 +5703,7 @@
         <v>1.1030596075011665E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -5806,7 +5715,7 @@
         <v>1.0750469659776066E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="10">
         <v>24</v>
       </c>
@@ -5818,7 +5727,7 @@
         <v>1.0487830912433658E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="10">
         <v>24</v>
       </c>
@@ -5830,7 +5739,7 @@
         <v>1.0240987870001271E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="10">
         <v>24</v>
       </c>
@@ -5842,7 +5751,7 @@
         <v>1.0008466247154508E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>24</v>
       </c>
@@ -5854,7 +5763,7 @@
         <v>9.7889749600821845E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="10">
         <v>24</v>
       </c>
@@ -5866,7 +5775,7 @@
         <v>9.581378068070006E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="10">
         <v>24</v>
       </c>
@@ -5878,7 +5787,7 @@
         <v>9.384671771318024E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="10">
         <v>24</v>
       </c>
@@ -5890,7 +5799,7 @@
         <v>9.197965425536591E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="10">
         <v>24</v>
       </c>
@@ -5902,7 +5811,7 @@
         <v>9.0204657723500087E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="10">
         <v>24</v>
       </c>
@@ -5914,7 +5823,7 @@
         <v>8.8514637629477626E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="10">
         <v>24</v>
       </c>
@@ -5926,7 +5835,7 @@
         <v>8.6903234871664355E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="10">
         <v>24</v>
       </c>
@@ -5938,7 +5847,7 @@
         <v>8.5364728228576516E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="10">
         <v>24</v>
       </c>
@@ -5950,7 +5859,7 @@
         <v>8.3893954992862452E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="10">
         <v>24</v>
       </c>
@@ -5962,7 +5871,7 @@
         <v>8.2486243293962962E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="10">
         <v>24</v>
       </c>
@@ -5974,7 +5883,7 @@
         <v>8.1137354134437796E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="10">
         <v>24</v>
       </c>
@@ -5986,7 +5895,7 @@
         <v>7.9843431539378847E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="10">
         <v>24</v>
       </c>
@@ -5998,7 +5907,7 @@
         <v>7.8600959514431613E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="10">
         <v>24</v>
       </c>
@@ -6010,7 +5919,7 @@
         <v>7.740672474356205E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="10">
         <v>24</v>
       </c>
@@ -6022,7 +5931,7 @@
         <v>7.6257784146310402E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="10">
         <v>24</v>
       </c>
@@ -6034,7 +5943,7 @@
         <v>7.5151436566089653E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="10">
         <v>24</v>
       </c>
@@ -6046,7 +5955,7 @@
         <v>7.4085197983949688E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="10">
         <v>24</v>
       </c>
@@ -6058,7 +5967,7 @@
         <v>7.305677975215797E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="10">
         <v>24</v>
       </c>
@@ -6070,7 +5979,7 @@
         <v>7.2064069423629076E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="10">
         <v>24</v>
       </c>
@@ -6082,7 +5991,7 @@
         <v>7.1105113820301323E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="10">
         <v>24</v>
       </c>
@@ -6094,7 +6003,7 @@
         <v>7.0178104038870481E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="10">
         <v>24</v>
       </c>
@@ -6106,7 +6015,7 @@
         <v>6.9281362138104707E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="10">
         <v>24</v>
       </c>
@@ -6118,7 +6027,7 @@
         <v>6.841332929005719E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="10">
         <v>24</v>
       </c>
@@ -6130,7 +6039,7 @@
         <v>6.7572555209297128E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="10">
         <v>24</v>
       </c>
@@ -6142,7 +6051,7 @@
         <v>6.675768870092416E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="10">
         <v>24</v>
       </c>
@@ -6154,7 +6063,7 @@
         <v>6.5967469190539203E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="10">
         <v>24</v>
       </c>
@@ -6166,7 +6075,7 @@
         <v>6.5200719118248549E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="10">
         <v>24</v>
       </c>
@@ -6178,7 +6087,7 @@
         <v>6.4456337094783E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="10">
         <v>24</v>
       </c>
@@ -6190,7 +6099,7 @@
         <v>6.3733291731403567E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="10">
         <v>24</v>
       </c>
@@ -6202,7 +6111,7 @@
         <v>6.3030616066842415E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="10">
         <v>24</v>
       </c>
@@ -6214,7 +6123,7 @@
         <v>6.2347402524415788E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="10">
         <v>24</v>
       </c>
@@ -6226,7 +6135,7 @@
         <v>6.1682798340919713E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="10">
         <v>24</v>
       </c>
@@ -6238,7 +6147,7 @@
         <v>6.1036001416197062E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="10">
         <v>24</v>
       </c>
@@ -6250,7 +6159,7 @@
         <v>6.0406256538531149E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="10">
         <v>24</v>
       </c>
@@ -6262,7 +6171,7 @@
         <v>5.9792851946438201E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="10">
         <v>24</v>
       </c>
@@ -6274,7 +6183,7 @@
         <v>5.9195116192111898E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="10">
         <v>24</v>
       </c>
@@ -6286,7 +6195,7 @@
         <v>5.8612415275842485E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="10">
         <v>24</v>
       </c>
@@ -6298,7 +6207,7 @@
         <v>5.8044150024266876E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="10">
         <v>24</v>
       </c>
@@ -6310,7 +6219,7 @@
         <v>5.7489753688387954E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="10">
         <v>24</v>
       </c>
@@ -6322,7 +6231,7 @@
         <v>5.6948689739994068E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="10">
         <v>24</v>
       </c>
@@ -6334,7 +6243,7 @@
         <v>5.6420449847464716E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="10">
         <v>24</v>
       </c>
@@ -6346,7 +6255,7 @@
         <v>5.5904552014015849E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="10">
         <v>24</v>
       </c>
@@ -6358,7 +6267,7 @@
         <v>5.5400538863254736E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="10">
         <v>24</v>
       </c>
@@ -6370,7 +6279,7 @@
         <v>5.4907976058511821E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="10">
         <v>24</v>
       </c>
@@ -6382,7 +6291,7 @@
         <v>5.4426450843829913E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="10">
         <v>24</v>
       </c>
@@ -6394,7 +6303,7 @@
         <v>5.395557069573502E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="10">
         <v>24</v>
       </c>
@@ -6406,7 +6315,7 @@
         <v>5.3494962076019118E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="10">
         <v>24</v>
       </c>
@@ -6418,7 +6327,7 @@
         <v>5.3044269276741546E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="10">
         <v>24</v>
       </c>
@@ -6430,7 +6339,7 @@
         <v>5.2603153349526548E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="10">
         <v>24</v>
       </c>
@@ -6442,7 +6351,7 @@
         <v>5.2171291112006555E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="10">
         <v>24</v>
       </c>
@@ -6454,7 +6363,7 @@
         <v>5.1748374224950162E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="10">
         <v>24</v>
       </c>
@@ -6466,7 +6375,7 @@
         <v>5.133410833422873E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="10">
         <v>24</v>
       </c>
@@ -6478,7 +6387,7 @@
         <v>5.0928212272324854E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="10">
         <v>24</v>
       </c>
@@ -6490,7 +6399,7 @@
         <v>5.0530417314577749E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="10">
         <v>24</v>
       </c>
@@ -6502,7 +6411,7 @@
         <v>5.0140466485801352E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="10">
         <v>24</v>
       </c>
@@ -6514,7 +6423,7 @@
         <v>4.9758113913306494E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="10">
         <v>24</v>
       </c>
@@ -6526,7 +6435,7 @@
         <v>4.9383124222714308E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="10">
         <v>24</v>
       </c>
@@ -6538,7 +6447,7 @@
         <v>4.9015271973267306E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="10">
         <v>24</v>
       </c>
@@ -6550,7 +6459,7 @@
         <v>4.8654341129633644E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="10">
         <v>24</v>
       </c>
@@ -6562,7 +6471,7 @@
         <v>4.8300124567459629E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="10">
         <v>24</v>
       </c>
@@ -6574,7 +6483,7 @@
         <v>4.7952423610159974E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="10">
         <v>24</v>
       </c>
@@ -6586,7 +6495,7 @@
         <v>4.7611047594649141E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="10">
         <v>24</v>
       </c>
@@ -6598,7 +6507,7 @@
         <v>4.7275813463907562E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="10">
         <v>24</v>
       </c>
@@ -6610,7 +6519,7 @@
         <v>4.6946545384452566E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="10">
         <v>24</v>
       </c>
@@ -6622,7 +6531,7 @@
         <v>4.662307438694023E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="10">
         <v>24</v>
       </c>
@@ -6634,7 +6543,7 @@
         <v>4.6305238028270263E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="10">
         <v>24</v>
       </c>
@@ -6646,7 +6555,7 @@
         <v>4.5992880073693777E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="10">
         <v>24</v>
       </c>
@@ -6658,7 +6567,7 @@
         <v>4.5685850197545869E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="10">
         <v>24</v>
       </c>
@@ -6670,7 +6579,7 @@
         <v>4.538400370133081E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="10">
         <v>24</v>
       </c>
@@ -6682,7 +6591,7 @@
         <v>4.5087201247987442E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="10">
         <v>24</v>
       </c>
@@ -6694,7 +6603,7 @@
         <v>4.4795308611252924E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15.75" thickBot="1">
       <c r="A102" s="12">
         <v>24</v>
       </c>
@@ -6706,7 +6615,7 @@
         <v>4.4508196439124815E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="7">
         <v>48</v>
       </c>
@@ -6718,7 +6627,7 @@
         <v>0.10855901052715931</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="10">
         <v>48</v>
       </c>
@@ -6730,7 +6639,7 @@
         <v>5.3859524601761813E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="10">
         <v>48</v>
       </c>
@@ -6742,7 +6651,7 @@
         <v>3.8879709693253647E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="10">
         <v>48</v>
       </c>
@@ -6754,7 +6663,7 @@
         <v>3.13684692961652E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="10">
         <v>48</v>
       </c>
@@ -6766,7 +6675,7 @@
         <v>2.67213967430373E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="10">
         <v>48</v>
       </c>
@@ -6778,7 +6687,7 @@
         <v>2.3510255187451461E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="10">
         <v>48</v>
       </c>
@@ -6790,7 +6699,7 @@
         <v>2.1133431352591409E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="10">
         <v>48</v>
       </c>
@@ -6802,7 +6711,7 @@
         <v>1.928944148039434E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="10">
         <v>48</v>
       </c>
@@ -6814,7 +6723,7 @@
         <v>1.7808997149817242E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="10">
         <v>48</v>
       </c>
@@ -6826,7 +6735,7 @@
         <v>1.6589033296506874E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="10">
         <v>48</v>
       </c>
@@ -6838,7 +6747,7 @@
         <v>1.5562879908100707E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="10">
         <v>48</v>
       </c>
@@ -6850,7 +6759,7 @@
         <v>1.4685323463399695E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="10">
         <v>48</v>
       </c>
@@ -6862,7 +6771,7 @@
         <v>1.3924517352279118E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="10">
         <v>48</v>
       </c>
@@ -6874,7 +6783,7 @@
         <v>1.3257321693393616E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="10">
         <v>48</v>
       </c>
@@ -6886,7 +6795,7 @@
         <v>1.2666480346061687E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="10">
         <v>48</v>
       </c>
@@ -6898,7 +6807,7 @@
         <v>1.2138838001061882E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="10">
         <v>48</v>
       </c>
@@ -6910,7 +6819,7 @@
         <v>1.1664173812135565E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="10">
         <v>48</v>
       </c>
@@ -6922,7 +6831,7 @@
         <v>1.123441503228813E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="10">
         <v>48</v>
       </c>
@@ -6934,7 +6843,7 @@
         <v>1.0843092840364098E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="10">
         <v>48</v>
       </c>
@@ -6946,7 +6855,7 @@
         <v>1.0484957078434101E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="10">
         <v>48</v>
       </c>
@@ -6958,7 +6867,7 @@
         <v>1.0155697950429454E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="10">
         <v>48</v>
       </c>
@@ -6970,7 +6879,7 @@
         <v>9.8517413577477991E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="10">
         <v>48</v>
       </c>
@@ -6982,7 +6891,7 @@
         <v>9.5700959590786453E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="10">
         <v>48</v>
       </c>
@@ -6994,7 +6903,7 @@
         <v>9.3082372232571632E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="10">
         <v>48</v>
       </c>
@@ -7006,7 +6915,7 @@
         <v>9.0640183731067331E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="10">
         <v>48</v>
       </c>
@@ -7018,7 +6927,7 @@
         <v>8.8356011671948589E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="10">
         <v>48</v>
       </c>
@@ -7030,7 +6939,7 @@
         <v>8.6214015141997426E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="10">
         <v>48</v>
       </c>
@@ -7042,7 +6951,7 @@
         <v>8.4200463145686147E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="10">
         <v>48</v>
       </c>
@@ -7054,7 +6963,7 @@
         <v>8.2303388969184373E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="10">
         <v>48</v>
       </c>
@@ -7066,7 +6975,7 @@
         <v>8.0512311026853401E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="10">
         <v>48</v>
       </c>
@@ -7078,7 +6987,7 @@
         <v>7.8818005630525798E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="10">
         <v>48</v>
       </c>
@@ -7090,7 +6999,7 @@
         <v>7.7212320673732647E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="10">
         <v>48</v>
       </c>
@@ -7102,7 +7011,7 @@
         <v>7.5688021825281344E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="10">
         <v>48</v>
       </c>
@@ -7114,7 +7023,7 @@
         <v>7.423866475398706E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="10">
         <v>48</v>
       </c>
@@ -7126,7 +7035,7 @@
         <v>7.2858488348503106E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="10">
         <v>48</v>
       </c>
@@ -7138,7 +7047,7 @@
         <v>7.154232498553628E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="10">
         <v>48</v>
       </c>
@@ -7150,7 +7059,7 @@
         <v>7.0285524729924304E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="10">
         <v>48</v>
       </c>
@@ -7162,7 +7071,7 @@
         <v>6.9083890988036337E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="10">
         <v>48</v>
       </c>
@@ -7174,7 +7083,7 @@
         <v>6.7933625630096995E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="10">
         <v>48</v>
       </c>
@@ -7186,7 +7095,7 @@
         <v>6.6831281982588251E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="10">
         <v>48</v>
       </c>
@@ -7198,7 +7107,7 @@
         <v>6.577372439482281E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="10">
         <v>48</v>
       </c>
@@ -7210,7 +7119,7 @@
         <v>6.4758093323375818E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="10">
         <v>48</v>
       </c>
@@ -7222,7 +7131,7 @@
         <v>6.3781775068744648E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="10">
         <v>48</v>
       </c>
@@ -7234,7 +7143,7 @@
         <v>6.2842375451254333E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="10">
         <v>48</v>
       </c>
@@ -7246,7 +7155,7 @@
         <v>6.1937696836123759E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="10">
         <v>48</v>
       </c>
@@ -7258,7 +7167,7 @@
         <v>6.1065718017071285E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="10">
         <v>48</v>
       </c>
@@ -7270,7 +7179,7 @@
         <v>6.0224576548754405E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="10">
         <v>48</v>
       </c>
@@ -7282,7 +7191,7 @@
         <v>5.9412553184477052E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="10">
         <v>48</v>
       </c>
@@ -7294,7 +7203,7 @@
         <v>5.8628058129916432E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="10">
         <v>48</v>
       </c>
@@ -7306,7 +7215,7 @@
         <v>5.7869618868419117E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="10">
         <v>48</v>
       </c>
@@ -7318,7 +7227,7 @@
         <v>5.7135869350528924E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="10">
         <v>48</v>
       </c>
@@ -7330,7 +7239,7 @@
         <v>5.6425540371267879E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="10">
         <v>48</v>
       </c>
@@ -7342,7 +7251,7 @@
         <v>5.5737450984462127E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="10">
         <v>48</v>
       </c>
@@ -7354,7 +7263,7 @@
         <v>5.5070500824991415E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="10">
         <v>48</v>
       </c>
@@ -7366,7 +7275,7 @@
         <v>5.4423663228002584E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="10">
         <v>48</v>
       </c>
@@ -7378,7 +7287,7 @@
         <v>5.3795979049447162E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="10">
         <v>48</v>
       </c>
@@ -7390,7 +7299,7 @@
         <v>5.3186551105275587E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="10">
         <v>48</v>
       </c>
@@ -7402,7 +7311,7 @@
         <v>5.2594539157637486E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="10">
         <v>48</v>
       </c>
@@ -7414,7 +7323,7 @@
         <v>5.2019155385821915E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="10">
         <v>48</v>
       </c>
@@ -7426,7 +7335,7 @@
         <v>5.1459660287689786E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="10">
         <v>48</v>
       </c>
@@ -7438,7 +7347,7 @@
         <v>5.091535896422029E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="10">
         <v>48</v>
       </c>
@@ -7450,7 +7359,7 @@
         <v>5.0385597745695497E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="10">
         <v>48</v>
       </c>
@@ -7462,7 +7371,7 @@
         <v>4.9869761123130518E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="10">
         <v>48</v>
       </c>
@@ -7474,7 +7383,7 @@
         <v>4.9367268952946802E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="10">
         <v>48</v>
       </c>
@@ -7486,7 +7395,7 @@
         <v>4.8877573906687703E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="10">
         <v>48</v>
       </c>
@@ -7498,7 +7407,7 @@
         <v>4.8400159140871979E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="10">
         <v>48</v>
       </c>
@@ -7510,7 +7419,7 @@
         <v>4.7934536164950699E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="10">
         <v>48</v>
       </c>
@@ -7522,7 +7431,7 @@
         <v>4.7480242887831424E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="10">
         <v>48</v>
       </c>
@@ -7534,7 +7443,7 @@
         <v>4.7036841825620207E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="10">
         <v>48</v>
       </c>
@@ -7546,7 +7455,7 @@
         <v>4.660391845514103E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="10">
         <v>48</v>
       </c>
@@ -7558,7 +7467,7 @@
         <v>4.6181079699471814E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="10">
         <v>48</v>
       </c>
@@ -7570,7 +7479,7 @@
         <v>4.5767952533208537E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="10">
         <v>48</v>
       </c>
@@ -7582,7 +7491,7 @@
         <v>4.5364182696467697E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="10">
         <v>48</v>
       </c>
@@ -7594,7 +7503,7 @@
         <v>4.4969433507781389E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="10">
         <v>48</v>
       </c>
@@ -7606,7 +7515,7 @@
         <v>4.4583384767052621E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="10">
         <v>48</v>
       </c>
@@ -7618,7 +7527,7 @@
         <v>4.4205731740632366E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="10">
         <v>48</v>
       </c>
@@ -7630,7 +7539,7 @@
         <v>4.3836184221376162E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="10">
         <v>48</v>
       </c>
@@ -7642,7 +7551,7 @@
         <v>4.3474465657242466E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="10">
         <v>48</v>
       </c>
@@ -7654,7 +7563,7 @@
         <v>4.3120312342623396E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="10">
         <v>48</v>
       </c>
@@ -7666,7 +7575,7 @@
         <v>4.2773472667157137E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="10">
         <v>48</v>
       </c>
@@ -7678,7 +7587,7 @@
         <v>4.2433706417272527E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="10">
         <v>48</v>
       </c>
@@ -7690,7 +7599,7 @@
         <v>4.2100784126159734E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="10">
         <v>48</v>
       </c>
@@ -7702,7 +7611,7 @@
         <v>4.1774486468262872E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="10">
         <v>48</v>
       </c>
@@ -7714,7 +7623,7 @@
         <v>4.145460369474701E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="10">
         <v>48</v>
       </c>
@@ -7726,7 +7635,7 @@
         <v>4.1140935106713898E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="10">
         <v>48</v>
       </c>
@@ -7738,7 +7647,7 @@
         <v>4.0833288563229438E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="10">
         <v>48</v>
       </c>
@@ -7750,7 +7659,7 @@
         <v>4.0531480021485343E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="10">
         <v>48</v>
       </c>
@@ -7762,7 +7671,7 @@
         <v>4.0235333106652671E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="10">
         <v>48</v>
       </c>
@@ -7774,7 +7683,7 @@
         <v>3.9944678709195143E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="10">
         <v>48</v>
       </c>
@@ -7786,7 +7695,7 @@
         <v>3.9659354607601439E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="10">
         <v>48</v>
       </c>
@@ -7798,7 +7707,7 @@
         <v>3.9379205114668664E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="10">
         <v>48</v>
       </c>
@@ -7810,7 +7719,7 @@
         <v>3.9104080745624202E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="10">
         <v>48</v>
       </c>
@@ -7822,7 +7731,7 @@
         <v>3.8833837906516577E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="10">
         <v>48</v>
       </c>
@@ -7834,7 +7743,7 @@
         <v>3.8568338601432796E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="10">
         <v>48</v>
       </c>
@@ -7846,7 +7755,7 @@
         <v>3.8307450157217663E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="10">
         <v>48</v>
       </c>
@@ -7858,7 +7767,7 @@
         <v>3.8051044964475655E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="10">
         <v>48</v>
       </c>
@@ -7870,7 +7779,7 @@
         <v>3.7799000233733767E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="10">
         <v>48</v>
       </c>
@@ -7882,7 +7791,7 @@
         <v>3.7551197765730944E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="10">
         <v>48</v>
       </c>
@@ -7894,7 +7803,7 @@
         <v>3.7307523734880018E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="10">
         <v>48</v>
       </c>
@@ -7906,7 +7815,7 @@
         <v>3.7067868485022486E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15.75" thickBot="1">
       <c r="A203" s="10">
         <v>48</v>
       </c>
@@ -7918,7 +7827,7 @@
         <v>3.6832126336661659E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="7">
         <v>120</v>
       </c>
@@ -7930,7 +7839,7 @@
         <v>8.1040286824899457E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="10">
         <v>120</v>
       </c>
@@ -7942,7 +7851,7 @@
         <v>4.038369878898955E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="10">
         <v>120</v>
       </c>
@@ -7954,7 +7863,7 @@
         <v>2.9211508628888487E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="10">
         <v>120</v>
       </c>
@@ -7966,7 +7875,7 @@
         <v>2.3599826604401127E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="10">
         <v>120</v>
       </c>
@@ -7978,7 +7887,7 @@
         <v>2.0123856809682008E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="10">
         <v>120</v>
       </c>
@@ -7990,7 +7899,7 @@
         <v>1.7719767003084103E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="10">
         <v>120</v>
       </c>
@@ -8002,7 +7911,7 @@
         <v>1.5938993153674565E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="10">
         <v>120</v>
       </c>
@@ -8014,7 +7923,7 @@
         <v>1.4556571945381505E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="10">
         <v>120</v>
       </c>
@@ -8026,7 +7935,7 @@
         <v>1.3446100509978865E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="10">
         <v>120</v>
       </c>
@@ -8038,7 +7947,7 @@
         <v>1.2530580372154192E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="10">
         <v>120</v>
       </c>
@@ -8050,7 +7959,7 @@
         <v>1.1760179120833216E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="10">
         <v>120</v>
       </c>
@@ -8062,7 +7971,7 @@
         <v>1.1101087387248463E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="10">
         <v>120</v>
       </c>
@@ -8074,7 +7983,7 @@
         <v>1.0529481938030959E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="10">
         <v>120</v>
       </c>
@@ -8086,7 +7995,7 @@
         <v>1.0028046589110308E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="10">
         <v>120</v>
       </c>
@@ -8098,7 +8007,7 @@
         <v>9.5838639239794916E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="10">
         <v>120</v>
       </c>
@@ -8110,7 +8019,7 @@
         <v>9.1870833292386263E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="10">
         <v>120</v>
       </c>
@@ -8122,7 +8031,7 @@
         <v>8.8300493655676607E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="10">
         <v>120</v>
       </c>
@@ -8134,7 +8043,7 @@
         <v>8.5067139506091131E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="10">
         <v>120</v>
       </c>
@@ -8146,7 +8055,7 @@
         <v>8.2122294749109852E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="10">
         <v>120</v>
       </c>
@@ -8158,7 +8067,7 @@
         <v>7.9426606659046498E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="10">
         <v>120</v>
       </c>
@@ -8170,7 +8079,7 @@
         <v>7.6947763992695805E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="10">
         <v>120</v>
       </c>
@@ -8182,7 +8091,7 @@
         <v>7.4658965622161509E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="10">
         <v>120</v>
       </c>
@@ -8194,7 +8103,7 @@
         <v>7.2537775947496665E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="10">
         <v>120</v>
       </c>
@@ -8206,7 +8115,7 @@
         <v>7.0565256989617376E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="10">
         <v>120</v>
       </c>
@@ -8218,7 +8127,7 @@
         <v>6.8725301646720919E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="10">
         <v>120</v>
       </c>
@@ -8230,7 +8139,7 @@
         <v>6.7004115379639658E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="10">
         <v>120</v>
       </c>
@@ -8242,7 +8151,7 @@
         <v>6.5389808895605726E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="10">
         <v>120</v>
       </c>
@@ -8254,7 +8163,7 @@
         <v>6.3872074864553315E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="10">
         <v>120</v>
       </c>
@@ -8266,7 +8175,7 @@
         <v>6.2441928974617394E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="10">
         <v>120</v>
       </c>
@@ -8278,7 +8187,7 @@
         <v>6.109150076335515E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="10">
         <v>120</v>
       </c>
@@ -8290,7 +8199,7 @@
         <v>5.9813863329595202E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="10">
         <v>120</v>
       </c>
@@ -8302,7 +8211,7 @@
         <v>5.8602893687485589E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="10">
         <v>120</v>
       </c>
@@ -8314,7 +8223,7 @@
         <v>5.7453157470970795E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="10">
         <v>120</v>
       </c>
@@ -8326,7 +8235,7 @@
         <v>5.6359813138966344E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="10">
         <v>120</v>
       </c>
@@ -8338,7 +8247,7 @@
         <v>5.5318531910619204E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="10">
         <v>120</v>
       </c>
@@ -8350,7 +8259,7 @@
         <v>5.4325430475279683E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="10">
         <v>120</v>
       </c>
@@ -8362,7 +8271,7 @@
         <v>5.3377014143182536E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="10">
         <v>120</v>
       </c>
@@ -8374,7 +8283,7 @@
         <v>5.2470128580406287E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="10">
         <v>120</v>
       </c>
@@ -8386,7 +8295,7 @@
         <v>5.1601918641616612E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="10">
         <v>120</v>
       </c>
@@ -8398,7 +8307,7 @@
         <v>5.0769793102779246E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="10">
         <v>120</v>
       </c>
@@ -8410,7 +8319,7 @@
         <v>4.997139432287385E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="10">
         <v>120</v>
       </c>
@@ -8422,7 +8331,7 @@
         <v>4.9204572043073961E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="10">
         <v>120</v>
       </c>
@@ -8434,7 +8343,7 @@
         <v>4.8467360674674742E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="10">
         <v>120</v>
       </c>
@@ -8446,7 +8355,7 @@
         <v>4.7757959541393979E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="10">
         <v>120</v>
       </c>
@@ -8458,7 +8367,7 @@
         <v>4.7074715633736866E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="10">
         <v>120</v>
       </c>
@@ -8470,7 +8379,7 @@
         <v>4.6416108507637069E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="10">
         <v>120</v>
       </c>
@@ -8482,7 +8391,7 @@
         <v>4.5780737020211107E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="10">
         <v>120</v>
       </c>
@@ -8494,7 +8403,7 @@
         <v>4.5167307645029055E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="10">
         <v>120</v>
       </c>
@@ -8506,7 +8415,7 @@
         <v>4.4574624150007583E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="10">
         <v>120</v>
       </c>
@@ -8518,7 +8427,7 @@
         <v>4.4001578454610172E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="10">
         <v>120</v>
       </c>
@@ -8530,7 +8439,7 @@
         <v>4.3447142510854376E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="10">
         <v>120</v>
       </c>
@@ -8542,7 +8451,7 @@
         <v>4.2910361075760937E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="10">
         <v>120</v>
       </c>
@@ -8554,7 +8463,7 @@
         <v>4.2390345262196651E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="10">
         <v>120</v>
       </c>
@@ -8566,7 +8475,7 @@
         <v>4.1886266771249733E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="10">
         <v>120</v>
       </c>
@@ -8578,7 +8487,7 @@
         <v>4.1397352722891941E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="10">
         <v>120</v>
       </c>
@@ -8590,7 +8499,7 @@
         <v>4.0922881013171729E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="10">
         <v>120</v>
       </c>
@@ -8602,7 +8511,7 @@
         <v>4.04621761359082E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="10">
         <v>120</v>
       </c>
@@ -8614,7 +8523,7 @@
         <v>4.0014605415120454E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="10">
         <v>120</v>
       </c>
@@ -8626,7 +8535,7 @@
         <v>3.957957560146462E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="10">
         <v>120</v>
       </c>
@@ -8638,7 +8547,7 @@
         <v>3.9156529791964335E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="10">
         <v>120</v>
       </c>
@@ -8650,7 +8559,7 @@
         <v>3.8744944637475721E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="10">
         <v>120</v>
       </c>
@@ -8662,7 +8571,7 @@
         <v>3.8344327806753677E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="10">
         <v>120</v>
       </c>
@@ -8674,7 +8583,7 @@
         <v>3.7954215679800976E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="10">
         <v>120</v>
       </c>
@@ -8686,7 +8595,7 @@
         <v>3.7574171246476371E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="10">
         <v>120</v>
       </c>
@@ -8698,7 +8607,7 @@
         <v>3.7203782189188165E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="10">
         <v>120</v>
       </c>
@@ -8710,7 +8619,7 @@
         <v>3.6842659130975819E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="10">
         <v>120</v>
       </c>
@@ -8722,7 +8631,7 @@
         <v>3.6490434032433851E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="10">
         <v>120</v>
       </c>
@@ -8734,7 +8643,7 @@
         <v>3.6146758722809449E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="10">
         <v>120</v>
       </c>
@@ -8746,7 +8655,7 @@
         <v>3.581130355224347E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="10">
         <v>120</v>
       </c>
@@ -8758,7 +8667,7 @@
         <v>3.5483756153560338E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="10">
         <v>120</v>
       </c>
@@ -8770,7 +8679,7 @@
         <v>3.5163820303271524E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="10">
         <v>120</v>
       </c>
@@ -8782,7 +8691,7 @@
         <v>3.48512148725624E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="10">
         <v>120</v>
       </c>
@@ -8794,7 +8703,7 @@
         <v>3.4545672860008085E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="10">
         <v>120</v>
       </c>
@@ -8806,7 +8715,7 @@
         <v>3.4246940498622387E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="10">
         <v>120</v>
       </c>
@@ -8818,7 +8727,7 @@
         <v>3.3954776430604517E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="10">
         <v>120</v>
       </c>
@@ -8830,7 +8739,7 @@
         <v>3.3668950943819883E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="10">
         <v>120</v>
       </c>
@@ -8842,7 +8751,7 @@
         <v>3.3389245264648986E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="10">
         <v>120</v>
       </c>
@@ -8854,7 +8763,7 @@
         <v>3.3115450902367256E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="10">
         <v>120</v>
       </c>
@@ -8866,7 +8775,7 @@
         <v>3.2847369040690817E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="10">
         <v>120</v>
       </c>
@@ -8878,7 +8787,7 @@
         <v>3.2584809972543015E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="10">
         <v>120</v>
       </c>
@@ -8890,7 +8799,7 @@
         <v>3.2327592574471768E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="10">
         <v>120</v>
       </c>
@@ -8902,7 +8811,7 @@
         <v>3.2075543817482763E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="10">
         <v>120</v>
       </c>
@@ -8914,7 +8823,7 @@
         <v>3.1828498311353417E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="10">
         <v>120</v>
       </c>
@@ -8926,7 +8835,7 @@
         <v>3.1586297879762138E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="10">
         <v>120</v>
       </c>
@@ -8938,7 +8847,7 @@
         <v>3.1348791163807637E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="10">
         <v>120</v>
       </c>
@@ -8950,7 +8859,7 @@
         <v>3.1115833251711303E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="10">
         <v>120</v>
       </c>
@@ -8962,7 +8871,7 @@
         <v>3.0887285332689808E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="10">
         <v>120</v>
       </c>
@@ -8974,7 +8883,7 @@
         <v>3.0663014373161746E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="10">
         <v>120</v>
       </c>
@@ -8986,7 +8895,7 @@
         <v>3.044289281361042E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="10">
         <v>120</v>
       </c>
@@ -8998,7 +8907,7 @@
         <v>3.0226798284568937E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="10">
         <v>120</v>
       </c>
@@ -9010,7 +8919,7 @@
         <v>3.001461334032235E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="10">
         <v>120</v>
       </c>
@@ -9022,7 +8931,7 @@
         <v>2.9806225209040144E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="10">
         <v>120</v>
       </c>
@@ -9034,7 +8943,7 @@
         <v>2.9601525558158362E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="10">
         <v>120</v>
       </c>
@@ -9046,7 +8955,7 @@
         <v>2.9400410273926914E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="10">
         <v>120</v>
       </c>
@@ -9058,7 +8967,7 @@
         <v>2.9202779254126001E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="10">
         <v>120</v>
       </c>
@@ -9070,7 +8979,7 @@
         <v>2.9008536213034793E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="10">
         <v>120</v>
       </c>
@@ -9082,7 +8991,7 @@
         <v>2.8817588497808684E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="10">
         <v>120</v>
       </c>
@@ -9094,7 +9003,7 @@
         <v>2.8629846915487482E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="10">
         <v>120</v>
       </c>
@@ -9106,7 +9015,7 @@
         <v>2.8445225569916572E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="10">
         <v>120</v>
       </c>
@@ -9118,7 +9027,7 @@
         <v>2.8263641707919778E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="15.75" thickBot="1">
       <c r="A304" s="12">
         <v>120</v>
       </c>
@@ -9130,7 +9039,7 @@
         <v>2.8085015574111326E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="7">
         <v>240</v>
       </c>
@@ -9142,7 +9051,7 @@
         <v>6.0605391545298037E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="10">
         <v>240</v>
       </c>
@@ -9154,7 +9063,7 @@
         <v>2.9870684400685053E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="10">
         <v>240</v>
       </c>
@@ -9166,7 +9075,7 @@
         <v>2.1496837749651419E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="10">
         <v>240</v>
       </c>
@@ -9178,7 +9087,7 @@
         <v>1.7308846384625619E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="10">
         <v>240</v>
       </c>
@@ -9190,7 +9099,7 @@
         <v>1.4722416006477454E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="10">
         <v>240</v>
       </c>
@@ -9202,7 +9111,7 @@
         <v>1.293761943702003E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="10">
         <v>240</v>
       </c>
@@ -9214,7 +9123,7 @@
         <v>1.1618009907097038E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="10">
         <v>240</v>
       </c>
@@ -9226,7 +9135,7 @@
         <v>1.0595183690095111E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="10">
         <v>240</v>
       </c>
@@ -9238,7 +9147,7 @@
         <v>9.7746711654252902E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="10">
         <v>240</v>
       </c>
@@ -9250,7 +9159,7 @@
         <v>9.0990058102078213E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="10">
         <v>240</v>
       </c>
@@ -9262,7 +9171,7 @@
         <v>8.5310411254195251E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="10">
         <v>240</v>
       </c>
@@ -9274,7 +9183,7 @@
         <v>8.0456018127187633E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="10">
         <v>240</v>
       </c>
@@ -9286,7 +9195,7 @@
         <v>7.6249657242036329E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="10">
         <v>240</v>
       </c>
@@ -9298,7 +9207,7 @@
         <v>7.2562627009246754E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="10">
         <v>240</v>
       </c>
@@ -9310,7 +9219,7 @@
         <v>6.9298997291623744E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="10">
         <v>240</v>
       </c>
@@ -9322,7 +9231,7 @@
         <v>6.6385668133191857E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="10">
         <v>240</v>
       </c>
@@ -9334,7 +9243,7 @@
         <v>6.376586921487788E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="10">
         <v>240</v>
       </c>
@@ -9346,7 +9255,7 @@
         <v>6.1394779057871622E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="10">
         <v>240</v>
       </c>
@@ -9358,7 +9267,7 @@
         <v>5.923649465749567E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="10">
         <v>240</v>
       </c>
@@ -9370,7 +9279,7 @@
         <v>5.7261886847070811E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="10">
         <v>240</v>
       </c>
@@ -9382,7 +9291,7 @@
         <v>5.5447051621796469E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="10">
         <v>240</v>
       </c>
@@ -9394,7 +9303,7 @@
         <v>5.3772171608636289E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="10">
         <v>240</v>
       </c>
@@ -9406,7 +9315,7 @@
         <v>5.2220665538901317E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="10">
         <v>240</v>
       </c>
@@ -9418,7 +9327,7 @@
         <v>5.0778543636688604E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="10">
         <v>240</v>
       </c>
@@ -9430,7 +9339,7 @@
         <v>4.9433912648289965E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="10">
         <v>240</v>
       </c>
@@ -9442,7 +9351,7 @@
         <v>4.8176591233581052E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="10">
         <v>240</v>
       </c>
@@ -9454,7 +9363,7 @@
         <v>4.6997807852143785E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="10">
         <v>240</v>
       </c>
@@ -9466,7 +9375,7 @@
         <v>4.5889961076562551E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="10">
         <v>240</v>
       </c>
@@ -9478,7 +9387,7 @@
         <v>4.4846427683512581E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="10">
         <v>240</v>
       </c>
@@ -9490,7 +9399,7 @@
         <v>4.3861407693548448E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="10">
         <v>240</v>
       </c>
@@ -9502,7 +9411,7 @@
         <v>4.2929798261330115E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="10">
         <v>240</v>
       </c>
@@ -9514,7 +9423,7 @@
         <v>4.2047090294962692E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="10">
         <v>240</v>
       </c>
@@ -9526,7 +9435,7 @@
         <v>4.1209283131194334E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="10">
         <v>240</v>
       </c>
@@ -9538,7 +9447,7 @@
         <v>4.0412813665535417E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="10">
         <v>240</v>
       </c>
@@ -9550,7 +9459,7 @@
         <v>3.9654497138538365E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="10">
         <v>240</v>
       </c>
@@ -9562,7 +9471,7 @@
         <v>3.8931477385294837E-3</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="10">
         <v>240</v>
       </c>
@@ -9574,7 +9483,7 @@
         <v>3.8241184816816122E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="10">
         <v>240</v>
       </c>
@@ -9586,7 +9495,7 @@
         <v>3.7581300756631807E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="10">
         <v>240</v>
       </c>
@@ -9598,7 +9507,7 @@
         <v>3.6949727030597822E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="10">
         <v>240</v>
       </c>
@@ -9610,7 +9519,7 @@
         <v>3.634455992216738E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="10">
         <v>240</v>
       </c>
@@ -9622,7 +9531,7 @@
         <v>3.5764067773702826E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="10">
         <v>240</v>
       </c>
@@ -9634,7 +9543,7 @@
         <v>3.520667164751059E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="10">
         <v>240</v>
       </c>
@@ -9646,7 +9555,7 @@
         <v>3.4670928566197128E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="10">
         <v>240</v>
       </c>
@@ -9658,7 +9567,7 @@
         <v>3.4155516936720744E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="10">
         <v>240</v>
       </c>
@@ -9670,7 +9579,7 @@
         <v>3.3659223830755812E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="10">
         <v>240</v>
       </c>
@@ -9682,7 +9591,7 @@
         <v>3.3180933849210116E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="10">
         <v>240</v>
       </c>
@@ -9694,7 +9603,7 @@
         <v>3.271961934365286E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="10">
         <v>240</v>
       </c>
@@ -9706,7 +9615,7 @@
         <v>3.2274331804122824E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="10">
         <v>240</v>
       </c>
@@ -9718,7 +9627,7 @@
         <v>3.1844194252929016E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="10">
         <v>240</v>
       </c>
@@ -9730,7 +9639,7 @@
         <v>3.1428394508916432E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="10">
         <v>240</v>
       </c>
@@ -9742,7 +9651,7 @@
         <v>3.1026179207258829E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="10">
         <v>240</v>
       </c>
@@ -9754,7 +9663,7 @@
         <v>3.0636848476960901E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="10">
         <v>240</v>
       </c>
@@ -9766,7 +9675,7 @@
         <v>3.0259751192544698E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="10">
         <v>240</v>
       </c>
@@ -9778,7 +9687,7 @@
         <v>2.9894280728369922E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="10">
         <v>240</v>
       </c>
@@ -9790,7 +9699,7 @@
         <v>2.9539871154107061E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="10">
         <v>240</v>
       </c>
@@ -9802,7 +9711,7 @@
         <v>2.9195993818378315E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="10">
         <v>240</v>
       </c>
@@ -9814,7 +9723,7 @@
         <v>2.8862154274772404E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="10">
         <v>240</v>
       </c>
@@ -9826,7 +9735,7 @@
         <v>2.8537889510547153E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="10">
         <v>240</v>
       </c>
@@ -9838,7 +9747,7 @@
         <v>2.8222765443535729E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="10">
         <v>240</v>
       </c>
@@ -9850,7 +9759,7 @@
         <v>2.7916374657215148E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="10">
         <v>240</v>
       </c>
@@ -9862,7 +9771,7 @@
         <v>2.7618334347704501E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="10">
         <v>240</v>
       </c>
@@ -9874,7 +9783,7 @@
         <v>2.7328284459729249E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="10">
         <v>240</v>
       </c>
@@ -9886,7 +9795,7 @@
         <v>2.7045885991404924E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="10">
         <v>240</v>
       </c>
@@ -9898,7 +9807,7 @@
         <v>2.6770819450126454E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="10">
         <v>240</v>
       </c>
@@ -9910,7 +9819,7 @@
         <v>2.6502783443953615E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="10">
         <v>240</v>
       </c>
@@ -9922,7 +9831,7 @@
         <v>2.6241493394710599E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="10">
         <v>240</v>
       </c>
@@ -9934,7 +9843,7 @@
         <v>2.5986680360605965E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="10">
         <v>240</v>
       </c>
@@ -9946,7 +9855,7 @@
         <v>2.5738089957563683E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="10">
         <v>240</v>
       </c>
@@ -9958,7 +9867,7 @@
         <v>2.5495481369665778E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="10">
         <v>240</v>
       </c>
@@ -9970,7 +9879,7 @@
         <v>2.5258626440165161E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="10">
         <v>240</v>
       </c>
@@ -9982,7 +9891,7 @@
         <v>2.5027308835456528E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="10">
         <v>240</v>
       </c>
@@ -9994,7 +9903,7 @@
         <v>2.4801323275208068E-3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="10">
         <v>240</v>
       </c>
@@ -10006,7 +9915,7 @@
         <v>2.458047482257615E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="10">
         <v>240</v>
       </c>
@@ -10018,7 +9927,7 @@
         <v>2.4364578229057951E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="10">
         <v>240</v>
       </c>
@@ -10030,7 +9939,7 @@
         <v>2.4153457329098025E-3</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="10">
         <v>240</v>
       </c>
@@ -10042,7 +9951,7 @@
         <v>2.3946944480059285E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="10">
         <v>240</v>
       </c>
@@ -10054,7 +9963,7 @@
         <v>2.374488004360987E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="10">
         <v>240</v>
       </c>
@@ -10066,7 +9975,7 @@
         <v>2.3547111904966265E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="10">
         <v>240</v>
       </c>
@@ -10078,7 +9987,7 @@
         <v>2.3353495026782029E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="10">
         <v>240</v>
       </c>
@@ -10090,7 +9999,7 @@
         <v>2.3163891034779396E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="10">
         <v>240</v>
       </c>
@@ -10102,7 +10011,7 @@
         <v>2.2978167832498515E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="10">
         <v>240</v>
       </c>
@@ -10114,7 +10023,7 @@
         <v>2.2796199242784976E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="10">
         <v>240</v>
       </c>
@@ -10126,7 +10035,7 @@
         <v>2.2617864673857868E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="10">
         <v>240</v>
       </c>
@@ -10138,7 +10047,7 @@
         <v>2.2443048807997885E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="10">
         <v>240</v>
       </c>
@@ -10150,7 +10059,7 @@
         <v>2.2271641311073587E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="10">
         <v>240</v>
       </c>
@@ -10162,7 +10071,7 @@
         <v>2.210353656128271E-3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="10">
         <v>240</v>
       </c>
@@ -10174,7 +10083,7 @@
         <v>2.1938633395629805E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="10">
         <v>240</v>
       </c>
@@ -10186,7 +10095,7 @@
         <v>2.1776834872790406E-3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="10">
         <v>240</v>
       </c>
@@ -10198,7 +10107,7 @@
         <v>2.1618048051129405E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="10">
         <v>240</v>
       </c>
@@ -10210,7 +10119,7 @@
         <v>2.146218378074593E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="10">
         <v>240</v>
       </c>
@@ -10222,7 +10131,7 @@
         <v>2.1309156508513361E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="10">
         <v>240</v>
       </c>
@@ -10234,7 +10143,7 @@
         <v>2.1158884095168573E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="10">
         <v>240</v>
       </c>
@@ -10246,7 +10155,7 @@
         <v>2.1011287643583759E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="10">
         <v>240</v>
       </c>
@@ -10258,7 +10167,7 @@
         <v>2.0866291337424212E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="10">
         <v>240</v>
       </c>
@@ -10270,7 +10179,7 @@
         <v>2.0723822289460646E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="10">
         <v>240</v>
       </c>
@@ -10282,7 +10191,7 @@
         <v>2.0583810398863327E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="10">
         <v>240</v>
       </c>
@@ -10294,7 +10203,7 @@
         <v>2.0446188216857917E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="10">
         <v>240</v>
       </c>
@@ -10306,7 +10215,7 @@
         <v>2.0310890820172929E-3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="10">
         <v>240</v>
       </c>
@@ -10318,7 +10227,7 @@
         <v>2.0177855691751439E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="10">
         <v>240</v>
       </c>
@@ -10330,7 +10239,7 @@
         <v>2.0047022608241875E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="15.75" thickBot="1">
       <c r="A405" s="12">
         <v>240</v>
       </c>
@@ -10342,7 +10251,7 @@
         <v>1.9918333533818335E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="7">
         <v>500</v>
       </c>
@@ -10354,7 +10263,7 @@
         <v>4.5142282421889036E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="10">
         <v>500</v>
       </c>
@@ -10366,7 +10275,7 @@
         <v>2.2371908361603278E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="10">
         <v>500</v>
       </c>
@@ -10378,7 +10287,7 @@
         <v>1.6141417870934323E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="10">
         <v>500</v>
       </c>
@@ -10390,7 +10299,7 @@
         <v>1.3018647438904742E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="10">
         <v>500</v>
       </c>
@@ -10402,7 +10311,7 @@
         <v>1.1087217058774287E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="10">
         <v>500</v>
       </c>
@@ -10414,7 +10323,7 @@
         <v>9.7528958773506341E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="10">
         <v>500</v>
       </c>
@@ -10426,7 +10335,7 @@
         <v>8.7654397992800344E-3</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="10">
         <v>500</v>
       </c>
@@ -10438,7 +10347,7 @@
         <v>7.9994697224212031E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="10">
         <v>500</v>
       </c>
@@ -10450,7 +10359,7 @@
         <v>7.3845945041401597E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="10">
         <v>500</v>
       </c>
@@ -10462,7 +10371,7 @@
         <v>6.8779650157777825E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="10">
         <v>500</v>
       </c>
@@ -10474,7 +10383,7 @@
         <v>6.4518666728728153E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="10">
         <v>500</v>
       </c>
@@ -10486,7 +10395,7 @@
         <v>6.0875063364968758E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="10">
         <v>500</v>
       </c>
@@ -10498,7 +10407,7 @@
         <v>5.7716481512636655E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="10">
         <v>500</v>
       </c>
@@ -10510,7 +10419,7 @@
         <v>5.4946757389438021E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="10">
         <v>500</v>
       </c>
@@ -10522,7 +10431,7 @@
         <v>5.2494184441687405E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="10">
         <v>500</v>
       </c>
@@ -10534,7 +10443,7 @@
         <v>5.0304100900426104E-3</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="10">
         <v>500</v>
       </c>
@@ -10546,7 +10455,7 @@
         <v>4.8334040974974792E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" s="10">
         <v>500</v>
       </c>
@@ -10558,7 +10467,7 @@
         <v>4.6550466026909617E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="10">
         <v>500</v>
       </c>
@@ -10570,7 +10479,7 @@
         <v>4.4926502651130738E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="10">
         <v>500</v>
       </c>
@@ -10582,7 +10491,7 @@
         <v>4.3440341386805125E-3</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="10">
         <v>500</v>
       </c>
@@ -10594,7 +10503,7 @@
         <v>4.2074080064711424E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="10">
         <v>500</v>
       </c>
@@ -10606,7 +10515,7 @@
         <v>4.0812873245041686E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="10">
         <v>500</v>
       </c>
@@ -10618,7 +10527,7 @@
         <v>3.9644296648290358E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="10">
         <v>500</v>
       </c>
@@ -10630,7 +10539,7 @@
         <v>3.8557865340812366E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="10">
         <v>500</v>
       </c>
@@ -10642,7 +10551,7 @@
         <v>3.7544663682383826E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="10">
         <v>500</v>
       </c>
@@ -10654,7 +10563,7 @@
         <v>3.659705771857816E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="10">
         <v>500</v>
       </c>
@@ -10666,7 +10575,7 @@
         <v>3.5708469213594162E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" s="10">
         <v>500</v>
       </c>
@@ -10678,7 +10587,7 @@
         <v>3.4873196338804382E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" s="10">
         <v>500</v>
       </c>
@@ -10690,7 +10599,7 @@
         <v>3.4086270075852909E-3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" s="10">
         <v>500</v>
       </c>
@@ -10702,7 +10611,7 @@
         <v>3.3343338244779426E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" s="10">
         <v>500</v>
       </c>
@@ -10714,7 +10623,7 @@
         <v>3.2640571106464771E-3</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" s="10">
         <v>500</v>
       </c>
@@ -10726,7 +10635,7 @@
         <v>3.1974583964944491E-3</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" s="10">
         <v>500</v>
       </c>
@@ -10738,7 +10647,7 @@
         <v>3.1342373276653877E-3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" s="10">
         <v>500</v>
       </c>
@@ -10750,7 +10659,7 @@
         <v>3.0741263574691397E-3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" s="10">
         <v>500</v>
       </c>
@@ -10762,7 +10671,7 @@
         <v>3.016886311551469E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" s="10">
         <v>500</v>
       </c>
@@ -10774,7 +10683,7 @@
         <v>2.9623026608180994E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" s="10">
         <v>500</v>
       </c>
@@ -10786,7 +10695,7 @@
         <v>2.9101823731233355E-3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" s="10">
         <v>500</v>
       </c>
@@ -10798,7 +10707,7 @@
         <v>2.8603512407444709E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" s="10">
         <v>500</v>
       </c>
@@ -10810,7 +10719,7 @@
         <v>2.8126516011961625E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" s="10">
         <v>500</v>
       </c>
@@ -10822,7 +10731,7 @@
         <v>2.7669403849594119E-3</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" s="10">
         <v>500</v>
       </c>
@@ -10834,7 +10743,7 @@
         <v>2.7230874362872233E-3</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" s="10">
         <v>500</v>
       </c>
@@ -10846,7 +10755,7 @@
         <v>2.6809740632038957E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" s="10">
         <v>500</v>
       </c>
@@ -10858,7 +10767,7 @@
         <v>2.6404917807375549E-3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" s="10">
         <v>500</v>
       </c>
@@ -10870,7 +10779,7 @@
         <v>2.6015412177676656E-3</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" s="10">
         <v>500</v>
       </c>
@@ -10882,7 +10791,7 @@
         <v>2.564031162975149E-3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" s="10">
         <v>500</v>
       </c>
@@ -10894,7 +10803,7 @@
         <v>2.527877729515023E-3</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" s="10">
         <v>500</v>
       </c>
@@ -10906,7 +10815,7 @@
         <v>2.4930036213930643E-3</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" s="10">
         <v>500</v>
       </c>
@@ -10918,7 +10827,7 @@
         <v>2.4593374872756558E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" s="10">
         <v>500</v>
       </c>
@@ -10930,7 +10839,7 @@
         <v>2.4268133497184043E-3</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" s="10">
         <v>500</v>
       </c>
@@ -10942,7 +10851,7 @@
         <v>2.3953700996602479E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" s="10">
         <v>500</v>
       </c>
@@ -10954,7 +10863,7 @@
         <v>2.3649510475712622E-3</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" s="10">
         <v>500</v>
       </c>
@@ -10966,7 +10875,7 @@
         <v>2.3355035239244208E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" s="10">
         <v>500</v>
       </c>
@@ -10978,7 +10887,7 @@
         <v>2.3069785227318785E-3</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" s="10">
         <v>500</v>
       </c>
@@ -10990,7 +10899,7 @@
         <v>2.2793303827831767E-3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" s="10">
         <v>500</v>
       </c>
@@ -11002,7 +10911,7 @@
         <v>2.2525165019770164E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" s="10">
         <v>500</v>
       </c>
@@ -11014,7 +10923,7 @@
         <v>2.2264970807746851E-3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" s="10">
         <v>500</v>
       </c>
@@ -11026,7 +10935,7 @@
         <v>2.2012348913419263E-3</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" s="10">
         <v>500</v>
       </c>
@@ -11038,7 +10947,7 @@
         <v>2.1766950694037312E-3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" s="10">
         <v>500</v>
       </c>
@@ -11050,7 +10959,7 @@
         <v>2.1528449262262594E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" s="10">
         <v>500</v>
       </c>
@@ -11062,7 +10971,7 @@
         <v>2.1296537784730681E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" s="10">
         <v>500</v>
       </c>
@@ -11074,7 +10983,7 @@
         <v>2.1070927939682745E-3</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" s="10">
         <v>500</v>
       </c>
@@ -11086,7 +10995,7 @@
         <v>2.0851348516442497E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" s="10">
         <v>500</v>
       </c>
@@ -11098,7 +11007,7 @@
         <v>2.0637544141626921E-3</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" s="10">
         <v>500</v>
       </c>
@@ -11110,7 +11019,7 @@
         <v>2.0429274118801718E-3</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" s="10">
         <v>500</v>
       </c>
@@ -11122,7 +11031,7 @@
         <v>2.022631136987146E-3</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" s="10">
         <v>500</v>
       </c>
@@ -11134,7 +11043,7 @@
         <v>2.0028441467863259E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" s="10">
         <v>500</v>
       </c>
@@ -11146,7 +11055,7 @@
         <v>1.9835461751954732E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" s="10">
         <v>500</v>
       </c>
@@ -11158,7 +11067,7 @@
         <v>1.9647180516634884E-3</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" s="10">
         <v>500</v>
       </c>
@@ -11170,7 +11079,7 @@
         <v>1.9463416267793401E-3</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" s="10">
         <v>500</v>
       </c>
@@ -11182,7 +11091,7 @@
         <v>1.928399703932826E-3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" s="10">
         <v>500</v>
       </c>
@@ -11194,7 +11103,7 @@
         <v>1.9108759764557689E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" s="10">
         <v>500</v>
       </c>
@@ -11206,7 +11115,7 @@
         <v>1.8937549697334536E-3</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" s="10">
         <v>500</v>
       </c>
@@ -11218,7 +11127,7 @@
         <v>1.8770219878300025E-3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" s="10">
         <v>500</v>
       </c>
@@ -11230,7 +11139,7 @@
         <v>1.860663064218977E-3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" s="10">
         <v>500</v>
       </c>
@@ -11242,7 +11151,7 @@
         <v>1.8446649162524094E-3</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" s="10">
         <v>500</v>
       </c>
@@ -11254,7 +11163,7 @@
         <v>1.8290149030387817E-3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" s="10">
         <v>500</v>
       </c>
@@ -11266,7 +11175,7 @@
         <v>1.8137009864333639E-3</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" s="10">
         <v>500</v>
       </c>
@@ -11278,7 +11187,7 @@
         <v>1.7987116948736755E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" s="10">
         <v>500</v>
       </c>
@@ -11290,7 +11199,7 @@
         <v>1.7840360898188797E-3</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" s="10">
         <v>500</v>
       </c>
@@ -11302,7 +11211,7 @@
         <v>1.7696637345751441E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" s="10">
         <v>500</v>
       </c>
@@ -11314,7 +11223,7 @@
         <v>1.7555846653097757E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" s="10">
         <v>500</v>
       </c>
@@ -11326,7 +11235,7 @@
         <v>1.7417893640753837E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" s="10">
         <v>500</v>
       </c>
@@ -11338,7 +11247,7 @@
         <v>1.7282687336819913E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" s="10">
         <v>500</v>
       </c>
@@ -11350,7 +11259,7 @@
         <v>1.7150140742698396E-3</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" s="10">
         <v>500</v>
       </c>
@@ -11362,7 +11271,7 @@
         <v>1.7020170614489561E-3</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" s="10">
         <v>500</v>
       </c>
@@ -11374,7 +11283,7 @@
         <v>1.6892697258835924E-3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" s="10">
         <v>500</v>
       </c>
@@ -11386,7 +11295,7 @@
         <v>1.6767644342103765E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" s="10">
         <v>500</v>
       </c>
@@ -11398,7 +11307,7 @@
         <v>1.664493871188796E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" s="10">
         <v>500</v>
       </c>
@@ -11410,7 +11319,7 @@
         <v>1.6524510229913442E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" s="10">
         <v>500</v>
       </c>
@@ -11422,7 +11331,7 @@
         <v>1.6406291615486618E-3</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" s="10">
         <v>500</v>
       </c>
@@ -11434,7 +11343,7 @@
         <v>1.6290218298720702E-3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" s="10">
         <v>500</v>
       </c>
@@ -11446,7 +11355,7 @@
         <v>1.6176228282824788E-3</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" s="10">
         <v>500</v>
       </c>
@@ -11458,7 +11367,7 @@
         <v>1.6064262014804747E-3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" s="10">
         <v>500</v>
       </c>
@@ -11470,7 +11379,7 @@
         <v>1.5954262263977242E-3</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" s="10">
         <v>500</v>
       </c>
@@ -11482,7 +11391,7 @@
         <v>1.5846174007747341E-3</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" s="10">
         <v>500</v>
       </c>
@@ -11494,7 +11403,7 @@
         <v>1.5739944324143324E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" s="10">
         <v>500</v>
       </c>
@@ -11506,7 +11415,7 @@
         <v>1.5635522290643336E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" s="10">
         <v>500</v>
       </c>
@@ -11518,7 +11427,7 @@
         <v>1.5532858888864351E-3</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" s="10">
         <v>500</v>
       </c>
@@ -11530,7 +11439,7 @@
         <v>1.5431906914717766E-3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" s="10">
         <v>500</v>
       </c>
@@ -11542,7 +11451,7 @@
         <v>1.5332620893666077E-3</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" ht="15.75" thickBot="1">
       <c r="A506" s="12">
         <v>500</v>
       </c>
@@ -11561,16 +11470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FC500D-8076-440B-B09C-2BF56B453840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -11581,7 +11490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="7">
         <v>24</v>
       </c>
@@ -11592,7 +11501,7 @@
         <v>-0.64300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="10">
         <v>48</v>
       </c>
@@ -11603,7 +11512,7 @@
         <v>-0.63800000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="10">
         <v>120</v>
       </c>
@@ -11614,7 +11523,7 @@
         <v>-0.63400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="10">
         <v>240</v>
       </c>
@@ -11625,7 +11534,7 @@
         <v>-0.64400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="12">
         <v>500</v>
       </c>
@@ -11636,7 +11545,7 @@
         <v>-0.63900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="C7">
         <f>AVERAGE(C2:C6)</f>
         <v>-0.63960000000000006</v>
@@ -11649,16 +11558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11666,7 +11575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>20000</v>
       </c>
@@ -11674,7 +11583,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <v>70000</v>
       </c>
@@ -11682,7 +11591,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>200000</v>
       </c>
@@ -11690,7 +11599,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <v>500000</v>
       </c>
@@ -11698,7 +11607,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>1000000</v>
       </c>
@@ -11706,16 +11615,16 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -11726,19 +11635,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2DD177-5007-4B54-922F-B32EB740BD59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -11749,471 +11658,471 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>15</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>100</v>
       </c>
       <c r="C2">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="21">
+    <row r="3" spans="1:3">
+      <c r="B3" s="18">
         <v>400</v>
       </c>
       <c r="C3">
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+    <row r="4" spans="1:3">
+      <c r="B4" s="18">
         <v>1000</v>
       </c>
       <c r="C4">
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+    <row r="5" spans="1:3">
+      <c r="B5" s="18">
         <v>2000</v>
       </c>
       <c r="C5">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+    <row r="6" spans="1:3">
+      <c r="B6" s="18">
         <v>4000</v>
       </c>
       <c r="C6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+    <row r="7" spans="1:3">
+      <c r="B7" s="18">
         <v>5000</v>
       </c>
       <c r="C7">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+    <row r="8" spans="1:3">
+      <c r="B8" s="18">
         <v>90000</v>
       </c>
       <c r="C8">
         <v>2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+    <row r="9" spans="1:3">
+      <c r="B9" s="18">
         <v>600000</v>
       </c>
       <c r="C9">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+    <row r="10" spans="1:3">
+      <c r="B10" s="18">
         <v>1000000</v>
       </c>
       <c r="C10">
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>25</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>100</v>
       </c>
       <c r="C11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+    <row r="12" spans="1:3">
+      <c r="B12" s="18">
         <v>300</v>
       </c>
       <c r="C12">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+    <row r="13" spans="1:3">
+      <c r="B13" s="18">
         <v>700</v>
       </c>
       <c r="C13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+    <row r="14" spans="1:3">
+      <c r="B14" s="18">
         <v>4000</v>
       </c>
       <c r="C14">
         <v>8.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+    <row r="15" spans="1:3">
+      <c r="B15" s="18">
         <v>9000</v>
       </c>
       <c r="C15">
         <v>6.0499999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
+    <row r="16" spans="1:3">
+      <c r="B16" s="18">
         <v>40000</v>
       </c>
       <c r="C16">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+    <row r="17" spans="1:3">
+      <c r="B17" s="18">
         <v>100000</v>
       </c>
       <c r="C17">
         <v>2.0500000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+    <row r="18" spans="1:3">
+      <c r="B18" s="18">
         <v>300000</v>
       </c>
       <c r="C18">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+    <row r="19" spans="1:3">
+      <c r="B19" s="18">
         <v>1000000</v>
       </c>
       <c r="C19">
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>35</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>100</v>
       </c>
       <c r="C20">
         <v>4.65E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+    <row r="21" spans="1:3">
+      <c r="B21" s="18">
         <v>300</v>
       </c>
       <c r="C21">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+    <row r="22" spans="1:3">
+      <c r="B22" s="18">
         <v>600</v>
       </c>
       <c r="C22">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="21">
+    <row r="23" spans="1:3">
+      <c r="B23" s="18">
         <v>3000</v>
       </c>
       <c r="C23">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="21">
+    <row r="24" spans="1:3">
+      <c r="B24" s="18">
         <v>5000</v>
       </c>
       <c r="C24">
         <v>6.9499999999999996E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="21">
+    <row r="25" spans="1:3">
+      <c r="B25" s="18">
         <v>8000</v>
       </c>
       <c r="C25">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
+    <row r="26" spans="1:3">
+      <c r="B26" s="18">
         <v>30000</v>
       </c>
       <c r="C26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+    <row r="27" spans="1:3">
+      <c r="B27" s="18">
         <v>80000</v>
       </c>
       <c r="C27">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="21">
+    <row r="28" spans="1:3">
+      <c r="B28" s="18">
         <v>300000</v>
       </c>
       <c r="C28">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="21">
+    <row r="29" spans="1:3">
+      <c r="B29" s="18">
         <v>1000000</v>
       </c>
       <c r="C29">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>45</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="18">
         <v>200</v>
       </c>
       <c r="C30">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="21">
+    <row r="31" spans="1:3">
+      <c r="B31" s="18">
         <v>400</v>
       </c>
       <c r="C31">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="21">
+    <row r="32" spans="1:3">
+      <c r="B32" s="18">
         <v>500</v>
       </c>
       <c r="C32">
         <v>1.95E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="21">
+    <row r="33" spans="2:3">
+      <c r="B33" s="18">
         <v>1000</v>
       </c>
       <c r="C33">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="21">
+    <row r="34" spans="2:3">
+      <c r="B34" s="18">
         <v>4000</v>
       </c>
       <c r="C34">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="21">
+    <row r="35" spans="2:3">
+      <c r="B35" s="18">
         <v>8000</v>
       </c>
       <c r="C35">
         <v>4.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="21">
+    <row r="36" spans="2:3">
+      <c r="B36" s="18">
         <v>60000</v>
       </c>
       <c r="C36">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="21">
+    <row r="37" spans="2:3">
+      <c r="B37" s="18">
         <v>100000</v>
       </c>
       <c r="C37">
         <v>1.65E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="21">
+    <row r="38" spans="2:3">
+      <c r="B38" s="18">
         <v>600000</v>
       </c>
       <c r="C38">
         <v>6.8000000000000005E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="21">
+    <row r="39" spans="2:3">
+      <c r="B39" s="18">
         <v>1000000</v>
       </c>
       <c r="C39">
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="21"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="21"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="21"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="21"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="21"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="21"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="21"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="21"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="21"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="21"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="21"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="21"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="21"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="21"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="21"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="21"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="21"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="21"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="21"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="21"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="21"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="21"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="21"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="21"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="21"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="21"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="21"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="21"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="21"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="21"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="21"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="21"/>
+    <row r="40" spans="2:3">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="18"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="18"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="18"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="18"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="18"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="18"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="18"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="18"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="18"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="18"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="18"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="18"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="18"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="18"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="18"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="18"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="18"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="18"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="18"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="18"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/heat_transfer_factor.xlsx
+++ b/heat_transfer_factor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tube_Laminare" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,6 @@
   <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -387,7 +386,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.0426389679815496E-2"/>
-                  <c:y val="-3.5683829484139773E-3"/>
+                  <c:y val="-3.5683829484139786E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -457,12 +456,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="48596864"/>
-        <c:axId val="48598400"/>
+        <c:axId val="43693952"/>
+        <c:axId val="43695488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48596864"/>
+        <c:axId val="43693952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -480,12 +478,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48598400"/>
+        <c:crossAx val="43695488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48598400"/>
+        <c:axId val="43695488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -504,14 +502,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48596864"/>
+        <c:crossAx val="43693952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -528,7 +525,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -558,7 +555,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12263137196390231"/>
+                  <c:x val="-0.12263137196390235"/>
                   <c:y val="3.8046549328392777E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -629,12 +626,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="171418368"/>
-        <c:axId val="171419904"/>
+        <c:axId val="43758336"/>
+        <c:axId val="43759872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171418368"/>
+        <c:axId val="43758336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -652,12 +648,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171419904"/>
+        <c:crossAx val="43759872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171419904"/>
+        <c:axId val="43759872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -676,14 +672,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171418368"/>
+        <c:crossAx val="43758336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -700,7 +695,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -730,7 +725,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8396296616769076E-2"/>
+                  <c:x val="-6.8396296616769089E-2"/>
                   <c:y val="-2.0627564411591408E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -801,12 +796,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="175520768"/>
-        <c:axId val="175530752"/>
+        <c:axId val="87886848"/>
+        <c:axId val="87896832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175520768"/>
+        <c:axId val="87886848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -824,12 +818,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175530752"/>
+        <c:crossAx val="87896832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175530752"/>
+        <c:axId val="87896832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -848,14 +842,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175520768"/>
+        <c:crossAx val="87886848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -872,7 +865,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -902,8 +895,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6738968949636032E-2"/>
-                  <c:y val="-3.2723601857460129E-2"/>
+                  <c:x val="-6.6738968949636046E-2"/>
+                  <c:y val="-3.2723601857460136E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -973,12 +966,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92087808"/>
-        <c:axId val="92089344"/>
+        <c:axId val="87934464"/>
+        <c:axId val="87936000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92087808"/>
+        <c:axId val="87934464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -996,12 +988,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92089344"/>
+        <c:crossAx val="87936000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92089344"/>
+        <c:axId val="87936000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1020,14 +1012,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92087808"/>
+        <c:crossAx val="87934464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1044,7 +1035,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1055,7 +1046,6 @@
   <c:lang val="it-IT"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1099,8 +1089,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.9292091799783322E-2"/>
-                  <c:y val="3.7241498658821502E-3"/>
+                  <c:x val="-9.9292091799783336E-2"/>
+                  <c:y val="3.7241498658821511E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1170,12 +1160,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92110848"/>
-        <c:axId val="92112384"/>
+        <c:axId val="87855104"/>
+        <c:axId val="87856640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92110848"/>
+        <c:axId val="87855104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1193,12 +1182,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92112384"/>
+        <c:crossAx val="87856640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92112384"/>
+        <c:axId val="87856640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1217,14 +1206,13 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92110848"/>
+        <c:crossAx val="87855104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1241,7 +1229,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,8 +1329,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.21967104111986005"/>
-                  <c:y val="9.0937226596675441E-2"/>
+                  <c:x val="-0.21967104111986008"/>
+                  <c:y val="9.0937226596675455E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1429,12 +1417,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="47502080"/>
-        <c:axId val="47503616"/>
+        <c:axId val="88079744"/>
+        <c:axId val="88130688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47502080"/>
+        <c:axId val="88079744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,12 +1476,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47503616"/>
+        <c:crossAx val="88130688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47503616"/>
+        <c:axId val="88130688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1536,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47502080"/>
+        <c:crossAx val="88079744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1598,7 +1585,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1688,8 +1675,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8250218722659701E-2"/>
-                  <c:y val="4.573126275882182E-2"/>
+                  <c:x val="-8.8250218722659715E-2"/>
+                  <c:y val="4.5731262758821827E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1776,12 +1763,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="47599616"/>
-        <c:axId val="47601152"/>
+        <c:axId val="88164992"/>
+        <c:axId val="88170880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47599616"/>
+        <c:axId val="88164992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1838,16 +1824,16 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47601152"/>
+        <c:crossAx val="88170880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47601152"/>
+        <c:axId val="88170880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000004E-2"/>
+          <c:max val="1.0000000000000005E-2"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines>
@@ -1900,7 +1886,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47599616"/>
+        <c:crossAx val="88164992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1949,7 +1935,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2043,7 +2029,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.9876428489917029E-3"/>
+                  <c:x val="5.9876428489917038E-3"/>
                   <c:y val="-0.53460766840161"/>
                 </c:manualLayout>
               </c:layout>
@@ -2357,8 +2343,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3761595018014064E-4"/>
-                  <c:y val="-0.32121480804716374"/>
+                  <c:x val="-6.3761595018014075E-4"/>
+                  <c:y val="-0.32121480804716385"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2520,7 +2506,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.3761595018014064E-4"/>
+                  <c:x val="-6.3761595018014075E-4"/>
                   <c:y val="-0.22608300570840723"/>
                 </c:manualLayout>
               </c:layout>
@@ -2638,12 +2624,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="94861568"/>
-        <c:axId val="94875648"/>
+        <c:axId val="88245376"/>
+        <c:axId val="88246912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94861568"/>
+        <c:axId val="88245376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2700,12 +2685,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94875648"/>
+        <c:crossAx val="88246912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94875648"/>
+        <c:axId val="88246912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2761,7 +2746,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94861568"/>
+        <c:crossAx val="88245376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2841,1678 +2826,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4535,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4571,7 +2888,7 @@
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4607,7 +2924,7 @@
         <xdr:cNvPr id="8" name="Grafico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4643,7 +2960,7 @@
         <xdr:cNvPr id="9" name="Grafico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4679,7 +2996,7 @@
         <xdr:cNvPr id="10" name="Grafico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,7 +3037,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A350578-F139-4EF9-B969-A6F1250314A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A350578-F139-4EF9-B969-A6F1250314A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,7 +3078,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7390E25-22CA-4690-A6A6-E630F3836B43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7390E25-22CA-4690-A6A6-E630F3836B43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,7 +3119,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40A6FCF5-3622-4864-A772-D26A1BF62301}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A6FCF5-3622-4864-A772-D26A1BF62301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11561,7 +9878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -11638,13 +9955,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
